--- a/maps/xtehr2zibs2024/Dosaging-full.xlsx
+++ b/maps/xtehr2zibs2024/Dosaging-full.xlsx
@@ -1314,51 +1314,15 @@
           <t>EHDSDosaging.methodOfAdministration</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>InstructionsForUse.RouteOfAdministration</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>RouteOfAdministration</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>InstructionsForUse.RouteOfAdministration</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NL: Toedieningsweg</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0..1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>NL-CM:9.12.19941</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>The route through which the medication is administered (oral, nasal, intravenous, etc.).</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1491,15 +1455,51 @@
           <t>EHDSDosaging.routeOfAdministration</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>InstructionsForUse.RouteOfAdministration</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RouteOfAdministration</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>InstructionsForUse.RouteOfAdministration</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NL: Toedieningsweg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0..1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NL-CM:9.12.19941</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>The route through which the medication is administered (oral, nasal, intravenous, etc.).</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
